--- a/clubsapp/clubs/portolaclubs.xlsx
+++ b/clubsapp/clubs/portolaclubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joannafan/Desktop/clubsproject/clubsapp/clubs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA8CFF-9E2F-7148-8606-49666EB768B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37461085-B218-6840-898F-231603C4E0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{B58A50BF-1C0C-6041-99FB-FA66B772F584}"/>
+    <workbookView xWindow="10640" yWindow="460" windowWidth="17940" windowHeight="16420" xr2:uid="{B58A50BF-1C0C-6041-99FB-FA66B772F584}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="232">
   <si>
     <t>Club</t>
   </si>
@@ -661,16 +661,97 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>DorisSchlothan@iusd.org</t>
+  </si>
+  <si>
+    <t>MadelineMullens@iusd.org</t>
+  </si>
+  <si>
+    <t>VirginiaNguyen@iusd.org</t>
+  </si>
+  <si>
+    <t>DorisSchlothan@iusd.org, KatieWi@iusd.org, ShameemahMotala@iusd.org</t>
+  </si>
+  <si>
+    <t>JeralynNewton@iusd.org</t>
+  </si>
+  <si>
+    <t>gracemaginn@iusd.org</t>
+  </si>
+  <si>
+    <t>KathyKobrine@iusd.org</t>
+  </si>
+  <si>
+    <t>JohnOlivares@iusd.org</t>
+  </si>
+  <si>
+    <t>CrystalLe@iusd.org</t>
+  </si>
+  <si>
+    <t>ErinArredondo@iusd.org</t>
+  </si>
+  <si>
+    <t>KatieWi@iusd.org</t>
+  </si>
+  <si>
+    <t>DesmondStevens@iusd.org</t>
+  </si>
+  <si>
+    <t>DesireeDeSantos@iusd.org, MelodyResendez@iusd.org</t>
+  </si>
+  <si>
+    <t>DianaVedder@iusd.org</t>
+  </si>
+  <si>
+    <t>LindsayBotha@iusd.org</t>
+  </si>
+  <si>
+    <t>JillCavotta@iusd.org</t>
+  </si>
+  <si>
+    <t>ShelleyGodett@iusd.org</t>
+  </si>
+  <si>
+    <t>JillCavotta@iusd.org, KateAvery@iusd.org</t>
+  </si>
+  <si>
+    <t>AdrianRangelSanchez@iusd.org</t>
+  </si>
+  <si>
+    <t>MichaelTang@iusd.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,13 +774,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1012,19 +1097,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31723C4-B9F5-3B4E-8C77-B7E7DE44905C}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,1128 +1120,1778 @@
       <c r="C1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>95</v>
       </c>
       <c r="B57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>98</v>
       </c>
       <c r="B60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>100</v>
       </c>
       <c r="B61" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>102</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>103</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>104</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>110</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>114</v>
       </c>
       <c r="B71" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>117</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>121</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>125</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>126</v>
       </c>
       <c r="B80" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>129</v>
       </c>
       <c r="B82" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>131</v>
       </c>
       <c r="B83" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>133</v>
       </c>
       <c r="B84" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>134</v>
       </c>
       <c r="B85" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>137</v>
       </c>
       <c r="B87" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>139</v>
       </c>
       <c r="B88" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>141</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>142</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>143</v>
       </c>
       <c r="B91" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>146</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>147</v>
       </c>
       <c r="B94" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>149</v>
       </c>
       <c r="B95" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>152</v>
       </c>
       <c r="B97" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>154</v>
       </c>
       <c r="B98" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>155</v>
       </c>
       <c r="B99" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>156</v>
       </c>
       <c r="B100" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>157</v>
       </c>
       <c r="B101" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>159</v>
       </c>
       <c r="B102" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>160</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>161</v>
       </c>
       <c r="B104" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>163</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>164</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>165</v>
       </c>
       <c r="B107" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>166</v>
       </c>
       <c r="B108" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>167</v>
       </c>
       <c r="B109" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>169</v>
       </c>
       <c r="B110" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>170</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>171</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>172</v>
       </c>
       <c r="B113" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>174</v>
       </c>
       <c r="B114" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>175</v>
       </c>
       <c r="B115" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>177</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>178</v>
       </c>
       <c r="B117" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>179</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>180</v>
       </c>
       <c r="B119" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>182</v>
       </c>
       <c r="B120" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>183</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>184</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>185</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>186</v>
       </c>
       <c r="B124" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>188</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>189</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>190</v>
       </c>
       <c r="B127" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>191</v>
       </c>
       <c r="B128" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>192</v>
       </c>
       <c r="B129" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>193</v>
       </c>
       <c r="B130" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>194</v>
       </c>
       <c r="B131" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>196</v>
       </c>
       <c r="B132" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>198</v>
       </c>
       <c r="B133" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>200</v>
       </c>
       <c r="B134" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>201</v>
       </c>
       <c r="B135" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>203</v>
       </c>
       <c r="B136" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>204</v>
       </c>
       <c r="B137" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>205</v>
       </c>
       <c r="B138" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>206</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>207</v>
       </c>
       <c r="B140" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>208</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3029BD02-80ED-904D-B6EF-80D3E8C3261F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{683431C1-6F56-794F-8404-1405E86858DD}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6951443D-96A0-A44D-93C1-DABFB21A003A}"/>
+    <hyperlink ref="D63" r:id="rId4" xr:uid="{F860C0F8-A18C-B74E-97B7-AC40ABAAC95C}"/>
+    <hyperlink ref="D103" r:id="rId5" xr:uid="{C35F0612-EBD7-0D43-B45D-63B7E4BA09A9}"/>
+    <hyperlink ref="D105" r:id="rId6" xr:uid="{3172F8C4-2AE0-1442-B51F-94081FA81D09}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{3648D2FB-6B76-A748-B2F3-B0225E832B2E}"/>
+    <hyperlink ref="D68" r:id="rId8" xr:uid="{A5F6C65D-57EC-9C4C-9801-B647F388DD7F}"/>
+    <hyperlink ref="D89" r:id="rId9" xr:uid="{E57F9837-60F3-E94E-B13A-C119C7BC5085}"/>
+    <hyperlink ref="D54" r:id="rId10" xr:uid="{B7C54FCB-B5F1-0844-A204-3789A2A4F4CA}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{38FC3AC4-5C48-404E-A833-B31B37213DA8}"/>
+    <hyperlink ref="D53" r:id="rId12" xr:uid="{C03F9DDE-C1D2-C147-810E-7AF85E78F6B8}"/>
+    <hyperlink ref="D96" r:id="rId13" xr:uid="{FCA8D6C1-0EB1-2D44-B5D3-610F870FCD35}"/>
+    <hyperlink ref="D112" r:id="rId14" xr:uid="{8A267906-89D7-7245-967F-C142227EA499}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{1785D1B3-3BBF-3740-A081-F084E0B316E5}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{896B8388-1CCA-644A-A314-460EB6EF6288}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{4A8C4716-C00D-4A4C-B046-593D4F888764}"/>
+    <hyperlink ref="D76" r:id="rId18" xr:uid="{A0849BD6-B1AA-F741-A798-E82F16D528EE}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{F541FC98-0B9E-5848-87E7-010BEB575153}"/>
+    <hyperlink ref="D15" r:id="rId20" xr:uid="{05DF4396-D67D-FD4D-920A-44840A8FB866}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{8A1E680C-58D8-924D-A857-EE58A958220E}"/>
+    <hyperlink ref="D17" r:id="rId22" xr:uid="{BF648726-4458-5C48-824A-BC1AA4F883A1}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{5B6D1A50-BACC-CC4A-86FB-774E68594FC5}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{5E0E033B-8B41-C144-8D22-52AC17294ED9}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{970E7C32-DB2B-7448-976F-6311FF70A0EC}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{71ACDBEF-E721-3149-93D4-786B0F388628}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{E96F34BC-5F58-C24D-9DD2-D35D05478C06}"/>
+    <hyperlink ref="D71" r:id="rId28" xr:uid="{9D5F6046-D179-1341-AA10-AF0F4A6457E8}"/>
+    <hyperlink ref="D84" r:id="rId29" xr:uid="{CD63B00A-50AC-5F40-92C5-BACDF993B70F}"/>
+    <hyperlink ref="D110" r:id="rId30" xr:uid="{67A1096E-2FED-2F46-BE91-5B8926EDC0A2}"/>
+    <hyperlink ref="D116" r:id="rId31" display="JillCavotta@iusd.org" xr:uid="{07B3DE64-6ADD-9147-B095-7BBA5FFE764B}"/>
+    <hyperlink ref="D121" r:id="rId32" display="JillCavotta@iusd.org" xr:uid="{BE1DC94E-77E0-8947-9CA6-8E69E8B80452}"/>
+    <hyperlink ref="D18" r:id="rId33" xr:uid="{21BBE988-04EC-D24D-95B0-4A372846DCD0}"/>
+    <hyperlink ref="D69" r:id="rId34" xr:uid="{1DC20992-A513-F246-B185-DE0627EFD4E8}"/>
+    <hyperlink ref="D72" r:id="rId35" xr:uid="{106F8DC9-A038-A040-9828-58B2EA9E2955}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{9780E549-D6DC-0B4A-AD55-A758D54A842A}"/>
+    <hyperlink ref="D27" r:id="rId37" xr:uid="{75636208-9F97-C544-B81C-71E2DECFB2B4}"/>
+    <hyperlink ref="D35" r:id="rId38" xr:uid="{36B9FB07-F8F2-9343-AD16-53803EFD6521}"/>
+    <hyperlink ref="D111" r:id="rId39" xr:uid="{2F3B4CBD-89B3-6044-B5C0-C8952772FC98}"/>
+    <hyperlink ref="D22" r:id="rId40" xr:uid="{E60F78A3-65BC-B143-9F69-688B6E740A9D}"/>
+    <hyperlink ref="D114" r:id="rId41" xr:uid="{BBA20D6A-F405-744C-AEB5-67BF4EFCE6E1}"/>
+    <hyperlink ref="D120" r:id="rId42" xr:uid="{947B19E4-3009-484D-9BA3-CA4DD1BFEC6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clubsapp/clubs/portolaclubs.xlsx
+++ b/clubsapp/clubs/portolaclubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joannafan/Desktop/clubsproject/clubsapp/clubs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37461085-B218-6840-898F-231603C4E0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B682D5A3-1F1E-AF42-AF27-4BE0E8F66AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="460" windowWidth="17940" windowHeight="16420" xr2:uid="{B58A50BF-1C0C-6041-99FB-FA66B772F584}"/>
+    <workbookView xWindow="11880" yWindow="480" windowWidth="16700" windowHeight="16420" xr2:uid="{B58A50BF-1C0C-6041-99FB-FA66B772F584}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="253">
   <si>
     <t>Club</t>
   </si>
@@ -727,6 +727,69 @@
   </si>
   <si>
     <t>MichaelTang@iusd.org</t>
+  </si>
+  <si>
+    <t>BriannaRapp@iusd.org</t>
+  </si>
+  <si>
+    <t>AlexandraMurphy@iusd.org</t>
+  </si>
+  <si>
+    <t>TinaMurphy@iusd.org</t>
+  </si>
+  <si>
+    <t>EricGraham@iusd.org</t>
+  </si>
+  <si>
+    <t>JeanneJelnick@iusd.org</t>
+  </si>
+  <si>
+    <t>tracybebout@iusd.org</t>
+  </si>
+  <si>
+    <t>PeggyAmmermann@iusd.org</t>
+  </si>
+  <si>
+    <t>NatashaSchottland@iusd.org</t>
+  </si>
+  <si>
+    <t>RyanAJohnson@iusd.org</t>
+  </si>
+  <si>
+    <t>KearciMoir@iusd.org</t>
+  </si>
+  <si>
+    <t>KearciMoir@iusd.org, AmandaCramer@iusd.org</t>
+  </si>
+  <si>
+    <t>SamanthaSanford@iusd.org</t>
+  </si>
+  <si>
+    <t>BrittneyKang@iusd.org</t>
+  </si>
+  <si>
+    <t>AnthonyPham@iusd.org</t>
+  </si>
+  <si>
+    <t>BrianSmith@iusd.org</t>
+  </si>
+  <si>
+    <t>RyanItchon@iusd.org</t>
+  </si>
+  <si>
+    <t>RyanItchon@iusd.org, NicoleEpres@iusd.org</t>
+  </si>
+  <si>
+    <t>NicoleEpres@iusd.org</t>
+  </si>
+  <si>
+    <t>MeganKirby@iusd.org</t>
+  </si>
+  <si>
+    <t>SamanthaGardner@iusd.org</t>
+  </si>
+  <si>
+    <t>BrittanyFrymire@iusd.org</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31723C4-B9F5-3B4E-8C77-B7E7DE44905C}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,6 +1491,9 @@
       <c r="C23" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1453,6 +1519,9 @@
       <c r="C25" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1464,6 +1533,9 @@
       <c r="C26" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1503,6 +1575,9 @@
       <c r="C29" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D29" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1514,6 +1589,9 @@
       <c r="C30" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1525,6 +1603,9 @@
       <c r="C31" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D31" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1536,6 +1617,9 @@
       <c r="C32" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D32" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1547,6 +1631,9 @@
       <c r="C33" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1558,6 +1645,9 @@
       <c r="C34" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1597,6 +1687,9 @@
       <c r="C37" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1608,6 +1701,9 @@
       <c r="C38" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1619,6 +1715,9 @@
       <c r="C39" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1630,6 +1729,9 @@
       <c r="C40" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1641,6 +1743,9 @@
       <c r="C41" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1652,6 +1757,9 @@
       <c r="C42" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1663,6 +1771,9 @@
       <c r="C43" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1674,6 +1785,9 @@
       <c r="C44" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1685,6 +1799,9 @@
       <c r="C45" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1696,6 +1813,9 @@
       <c r="C46" t="s">
         <v>210</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1707,6 +1827,9 @@
       <c r="C47" t="s">
         <v>210</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1718,6 +1841,9 @@
       <c r="C48" t="s">
         <v>210</v>
       </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1729,6 +1855,9 @@
       <c r="C49" t="s">
         <v>210</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1762,6 +1891,9 @@
       <c r="C52" t="s">
         <v>210</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -1890,6 +2022,9 @@
       <c r="C62" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -2104,6 +2239,9 @@
       <c r="C79" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D79" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -2126,6 +2264,9 @@
       <c r="C81" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -2148,6 +2289,9 @@
       <c r="C83" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -2173,6 +2317,9 @@
       <c r="C85" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D85" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -2231,6 +2378,9 @@
       <c r="C90" t="s">
         <v>210</v>
       </c>
+      <c r="D90" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -2253,6 +2403,9 @@
       <c r="C92" t="s">
         <v>210</v>
       </c>
+      <c r="D92" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -2325,6 +2478,9 @@
       <c r="C98" t="s">
         <v>210</v>
       </c>
+      <c r="D98" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -2336,6 +2492,9 @@
       <c r="C99" t="s">
         <v>210</v>
       </c>
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -2347,6 +2506,9 @@
       <c r="C100" t="s">
         <v>210</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -2444,6 +2606,9 @@
       <c r="C108" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D108" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -2558,6 +2723,9 @@
       <c r="C117" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -2625,6 +2793,9 @@
       <c r="C122" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D122" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -2683,6 +2854,9 @@
       <c r="C127" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D127" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -2694,6 +2868,9 @@
       <c r="C128" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D128" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -2705,6 +2882,9 @@
       <c r="C129" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D129" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -2760,6 +2940,9 @@
       <c r="C134" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D134" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -2782,6 +2965,9 @@
       <c r="C136" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -2831,6 +3017,9 @@
       </c>
       <c r="C140" s="1" t="s">
         <v>210</v>
+      </c>
+      <c r="D140" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,6 +3080,24 @@
     <hyperlink ref="D22" r:id="rId40" xr:uid="{E60F78A3-65BC-B143-9F69-688B6E740A9D}"/>
     <hyperlink ref="D114" r:id="rId41" xr:uid="{BBA20D6A-F405-744C-AEB5-67BF4EFCE6E1}"/>
     <hyperlink ref="D120" r:id="rId42" xr:uid="{947B19E4-3009-484D-9BA3-CA4DD1BFEC6E}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{7ACFA3E4-7A4D-9E41-B896-92C39F9B6D1B}"/>
+    <hyperlink ref="D52" r:id="rId44" xr:uid="{D311F74D-C2E5-624C-B05E-7B2123DAFEDF}"/>
+    <hyperlink ref="D117" r:id="rId45" xr:uid="{F479D3E6-5090-6043-B91B-774AA926D5C5}"/>
+    <hyperlink ref="D25" r:id="rId46" xr:uid="{20981EDE-29DF-994E-BBF7-923034FFBD1F}"/>
+    <hyperlink ref="D43" r:id="rId47" xr:uid="{064C3610-2D36-A247-B76F-349887060AC1}"/>
+    <hyperlink ref="D136" r:id="rId48" xr:uid="{970E94CA-3CE6-4441-93C1-5A0D42A94557}"/>
+    <hyperlink ref="D26" r:id="rId49" xr:uid="{ED2491E0-5103-4845-A5CB-032DC0F957E0}"/>
+    <hyperlink ref="D30" r:id="rId50" xr:uid="{6CD6D68F-FF8D-A249-930B-58D5AACD5A21}"/>
+    <hyperlink ref="D100" r:id="rId51" xr:uid="{9DC3A573-FC36-FE44-B08A-25AE1C9CBD53}"/>
+    <hyperlink ref="D38" r:id="rId52" xr:uid="{E6653FEB-960C-CE45-A90A-A7D67EBDDEA4}"/>
+    <hyperlink ref="D40" r:id="rId53" xr:uid="{1FE4C847-62F4-A145-B0EB-C6236EFF5A75}"/>
+    <hyperlink ref="D44" r:id="rId54" xr:uid="{4BC69594-6C77-D04E-BE95-0E08F3EA7306}"/>
+    <hyperlink ref="D41" r:id="rId55" xr:uid="{E2FC2C4C-6C09-4845-8401-7B3C78A7FC54}"/>
+    <hyperlink ref="D42" r:id="rId56" display="RyanItchon@iusd.org" xr:uid="{FB197CF8-3542-E94E-8C93-5686610F41F1}"/>
+    <hyperlink ref="D49" r:id="rId57" xr:uid="{C98A2E46-C047-4D4B-8360-BDD61F4970AA}"/>
+    <hyperlink ref="D46" r:id="rId58" xr:uid="{4AECA2B7-1111-2447-BCD8-30487FE750D4}"/>
+    <hyperlink ref="D47" r:id="rId59" xr:uid="{07C289FC-6CEF-CA41-B98A-8392E8D0A3D1}"/>
+    <hyperlink ref="D62" r:id="rId60" xr:uid="{D5C0E08B-F6D1-9444-8AEF-79AB811B6A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
